--- a/biology/Botanique/Tillandsia_clavigera/Tillandsia_clavigera.xlsx
+++ b/biology/Botanique/Tillandsia_clavigera/Tillandsia_clavigera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia clavigera Mez est une plante de la famille des Bromeliaceae.
 L'épithète clavigera signifie « portant des massues » et se rapporte à l'aspect des subdivisions de l'inflorescence.
@@ -512,12 +524,14 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia clavigera Mez in C.DC., Monogr. Phan. 9: 783, no 140 (1896)
-Diagnose originale[1] :
+Diagnose originale :
 « inflorescentia laxe basi tri-, apicem versus bipinnatim panniculata[sic] spicis axi primario pinnatim insertis, nutantibus, flabellatis, +/- 8-floris, bracteas primarias longe superantibus ; bracteolis florigeris sepala subaequantibus ; floribus erectis ; sepalis aequaliter liberis ; petalis stamina superantibus. »
-Type : leg. Stübel, n° 208a, 1871-09[1]; "Ecuador, Cerro Ilaló cerca de Quito, 3000 m." ; Holotypus B (in herb. Hieron.) [ Planche en ligne ].
+Type : leg. Stübel, n° 208a, 1871-09; "Ecuador, Cerro Ilaló cerca de Quito, 3000 m." ; Holotypus B (in herb. Hieron.) [ Planche en ligne ].
 </t>
         </is>
       </c>
@@ -548,10 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Synonymie nomenclaturale
-Tillandsia deppeana var. clavigera (Mez) L.B.Sm.
-Synonymie taxonomique
-(aucune)</t>
+          <t>Synonymie nomenclaturale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Tillandsia deppeana var. clavigera (Mez) L.B.Sm.</t>
         </is>
       </c>
     </row>
@@ -576,10 +593,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymie taxonomique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(aucune)</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +629,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie et habitat</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Typologie : plante vivace herbacée ; épiphyte[1],[2]
-Habitat : ?
-Altitude : 3 000 m[2].</t>
-        </is>
-      </c>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -634,14 +657,16 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Distribution</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Amérique du Sud :
- Équateur[2]
-Pichincha[1]</t>
+          <t>Écologie et habitat</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Typologie : plante vivace herbacée ; épiphyte,
+Habitat : ?
+Altitude : 3 000 m.</t>
         </is>
       </c>
     </row>
@@ -666,10 +691,18 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Comportement en culture</t>
+          <t>Distribution</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Amérique du Sud :
+ Équateur
+Pichincha</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -692,19 +725,86 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Comportement en culture</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Tillandsia_clavigera</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_clavigera</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Taxons infraspécifiques</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tillandsia clavigera var. clavigera
-(autonyme)
-Tillandsia clavigera var. pendula Rauh
-Tillandsia clavigera var. pendula Rauh, in Abh. Akad. Wiss. Lit. Mainz, Math.-Naturwiss. Klasse, Trop. Subtrop. Pflanzenwelt 52: 59 (1985)
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Tillandsia clavigera var. clavigera</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(autonyme)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Tillandsia_clavigera</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_clavigera</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Taxons infraspécifiques</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Tillandsia clavigera var. pendula Rauh</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia clavigera var. pendula Rauh, in Abh. Akad. Wiss. Lit. Mainz, Math.-Naturwiss. Klasse, Trop. Subtrop. Pflanzenwelt 52: 59 (1985)
 Type : leg. W.Rauh, no 63924 ; Holotypus HEID.
-À noter le revirement d'opinion de Rauh qui voyait auparavant[3] Tillandsia clavigera comme une simple variété de Tillandsia deppeana Steud.
-Distribution : centre du Pérou[2].
-Rupicole, à 2 400 m d'altitude[2].
+À noter le revirement d'opinion de Rauh qui voyait auparavant Tillandsia clavigera comme une simple variété de Tillandsia deppeana Steud.
+Distribution : centre du Pérou.
+Rupicole, à 2 400 m d'altitude.
 </t>
         </is>
       </c>
